--- a/Code/Results/Cases/Case_0_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_100/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1513533207424871</v>
+        <v>0.04969111061828357</v>
       </c>
       <c r="D2">
-        <v>0.1121655607192693</v>
+        <v>0.2107476850596086</v>
       </c>
       <c r="E2">
-        <v>0.1459082474747646</v>
+        <v>0.1680132064088014</v>
       </c>
       <c r="F2">
-        <v>1.623710477617493</v>
+        <v>1.276671991392604</v>
       </c>
       <c r="G2">
-        <v>1.359162961189099</v>
+        <v>0.7614461594882869</v>
       </c>
       <c r="H2">
-        <v>0.7123881736341957</v>
+        <v>0.7362247279386338</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2195916495684571</v>
+        <v>0.1838998710621524</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>4.325936529764817</v>
+        <v>3.002323868125757</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1306297015345876</v>
+        <v>0.0440893987137656</v>
       </c>
       <c r="D3">
-        <v>0.1046783009983585</v>
+        <v>0.2101148881431385</v>
       </c>
       <c r="E3">
-        <v>0.1309345934345281</v>
+        <v>0.1653876853705007</v>
       </c>
       <c r="F3">
-        <v>1.430159731988297</v>
+        <v>1.235354089528187</v>
       </c>
       <c r="G3">
-        <v>1.183735308740012</v>
+        <v>0.7201967886403509</v>
       </c>
       <c r="H3">
-        <v>0.6353758814913135</v>
+        <v>0.7216148393470121</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1938054134748057</v>
+        <v>0.1786267740460445</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>3.792358916248475</v>
+        <v>2.883864273825111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1180634485430119</v>
+        <v>0.04066648080491575</v>
       </c>
       <c r="D4">
-        <v>0.1002290885305968</v>
+        <v>0.2098108844849804</v>
       </c>
       <c r="E4">
-        <v>0.1219599220516692</v>
+        <v>0.1638661144860727</v>
       </c>
       <c r="F4">
-        <v>1.31365559037333</v>
+        <v>1.210749221148646</v>
       </c>
       <c r="G4">
-        <v>1.077892611268084</v>
+        <v>0.6953400628314057</v>
       </c>
       <c r="H4">
-        <v>0.589152337285185</v>
+        <v>0.7130539717894919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1783088153418433</v>
+        <v>0.1755003753982649</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>3.470912885329938</v>
+        <v>2.812967843030833</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1129768371983175</v>
+        <v>0.03927570747224252</v>
       </c>
       <c r="D5">
-        <v>0.09845080691345487</v>
+        <v>0.2097082792863816</v>
       </c>
       <c r="E5">
-        <v>0.1183528688171691</v>
+        <v>0.1632687989182777</v>
       </c>
       <c r="F5">
-        <v>1.26670604545042</v>
+        <v>1.200914363468527</v>
       </c>
       <c r="G5">
-        <v>1.03517692978771</v>
+        <v>0.6853285548016999</v>
       </c>
       <c r="H5">
-        <v>0.570557832476922</v>
+        <v>0.7096682597508703</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1720697388889079</v>
+        <v>0.1742542540487335</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>3.341305405013827</v>
+        <v>2.784537893400397</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.112134122550799</v>
+        <v>0.03904501583026843</v>
       </c>
       <c r="D6">
-        <v>0.09815755960131156</v>
+        <v>0.2096925275952657</v>
       </c>
       <c r="E6">
-        <v>0.1177568145829078</v>
+        <v>0.1631709877360805</v>
       </c>
       <c r="F6">
-        <v>1.258940231840725</v>
+        <v>1.199292866790799</v>
       </c>
       <c r="G6">
-        <v>1.028107637248951</v>
+        <v>0.6836732519807072</v>
       </c>
       <c r="H6">
-        <v>0.5674841407522848</v>
+        <v>0.7091122775099876</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.171038088657248</v>
+        <v>0.1740490201064162</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>3.319863109774531</v>
+        <v>2.779844922308712</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1179947171310261</v>
+        <v>0.04064770786656879</v>
       </c>
       <c r="D7">
-        <v>0.1002049681291197</v>
+        <v>0.2098094145296088</v>
       </c>
       <c r="E7">
-        <v>0.1219110790851374</v>
+        <v>0.1638579668473099</v>
       </c>
       <c r="F7">
-        <v>1.313020356511359</v>
+        <v>1.21061580867098</v>
       </c>
       <c r="G7">
-        <v>1.077314917001985</v>
+        <v>0.6952045678091281</v>
       </c>
       <c r="H7">
-        <v>0.5889006175665656</v>
+        <v>0.7130078943511364</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1782243765916718</v>
+        <v>0.1754834568576271</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>3.469159561522304</v>
+        <v>2.812582562290402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1441715496644775</v>
+        <v>0.04775616062549659</v>
       </c>
       <c r="D8">
-        <v>0.1095517365383714</v>
+        <v>0.2105119633123351</v>
       </c>
       <c r="E8">
-        <v>0.1406967589342507</v>
+        <v>0.1670891265871504</v>
       </c>
       <c r="F8">
-        <v>1.556451209984118</v>
+        <v>1.262266643986948</v>
       </c>
       <c r="G8">
-        <v>1.298253335191106</v>
+        <v>0.7471253876036883</v>
       </c>
       <c r="H8">
-        <v>0.6855981247848888</v>
+        <v>0.7311021441246055</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2106253666087383</v>
+        <v>0.1820585575030407</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>4.14057293947252</v>
+        <v>2.96109663284426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1970302123594223</v>
+        <v>0.0618310090167995</v>
       </c>
       <c r="D9">
-        <v>0.1291730613794613</v>
+        <v>0.2125597742668219</v>
       </c>
       <c r="E9">
-        <v>0.1795170167056952</v>
+        <v>0.1741451481489946</v>
       </c>
       <c r="F9">
-        <v>2.055353575259019</v>
+        <v>1.369645234141316</v>
       </c>
       <c r="G9">
-        <v>1.749031077697566</v>
+        <v>0.8527049597044538</v>
       </c>
       <c r="H9">
-        <v>0.8848912640510207</v>
+        <v>0.7698429204376112</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2772572791161139</v>
+        <v>0.1958398391215894</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>5.5144617671736</v>
+        <v>3.266996416250606</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2372097107759714</v>
+        <v>0.0722605177838318</v>
       </c>
       <c r="D10">
-        <v>0.1445567155732164</v>
+        <v>0.2144724038754475</v>
       </c>
       <c r="E10">
-        <v>0.2096169174505746</v>
+        <v>0.1797709608777254</v>
       </c>
       <c r="F10">
-        <v>2.439613863238591</v>
+        <v>1.452295328595596</v>
       </c>
       <c r="G10">
-        <v>2.094999986976291</v>
+        <v>0.9326177770774677</v>
       </c>
       <c r="H10">
-        <v>1.03910997157044</v>
+        <v>0.8003065429869878</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3287501219152773</v>
+        <v>0.2065133899798752</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>6.571442345150047</v>
+        <v>3.500816883837047</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2558829333343908</v>
+        <v>0.07702584964360426</v>
       </c>
       <c r="D11">
-        <v>0.1518098721261083</v>
+        <v>0.2154310724398982</v>
       </c>
       <c r="E11">
-        <v>0.2237452571431788</v>
+        <v>0.1824269134106373</v>
       </c>
       <c r="F11">
-        <v>2.619416415706439</v>
+        <v>1.490721737755166</v>
       </c>
       <c r="G11">
-        <v>2.256625256362327</v>
+        <v>0.9694922927976108</v>
       </c>
       <c r="H11">
-        <v>1.111437154970133</v>
+        <v>0.8146031334345594</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3528897467783025</v>
+        <v>0.2114898347396519</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>7.065792490401009</v>
+        <v>3.60918982072053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2630203435572156</v>
+        <v>0.07883345327934421</v>
       </c>
       <c r="D12">
-        <v>0.1545972474636415</v>
+        <v>0.2158068242922155</v>
       </c>
       <c r="E12">
-        <v>0.2291665366859235</v>
+        <v>0.183446606245603</v>
       </c>
       <c r="F12">
-        <v>2.68832877849087</v>
+        <v>1.505392597165411</v>
       </c>
       <c r="G12">
-        <v>2.318534161272254</v>
+        <v>0.9835314671214803</v>
       </c>
       <c r="H12">
-        <v>1.139182346173612</v>
+        <v>0.8200801398335216</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3621488572636054</v>
+        <v>0.2133917932220157</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>7.255230418049393</v>
+        <v>3.650518376121966</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2614800670191215</v>
+        <v>0.07844401556036473</v>
       </c>
       <c r="D13">
-        <v>0.1539950538698349</v>
+        <v>0.2157253337201013</v>
       </c>
       <c r="E13">
-        <v>0.2279956557142313</v>
+        <v>0.1832263766265498</v>
       </c>
       <c r="F13">
-        <v>2.673448763941678</v>
+        <v>1.502227637601607</v>
       </c>
       <c r="G13">
-        <v>2.305167997298298</v>
+        <v>0.9805045085584823</v>
       </c>
       <c r="H13">
-        <v>1.133190315721436</v>
+        <v>0.818897755549358</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3601492377584492</v>
+        <v>0.2129813932859292</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>7.214327007200609</v>
+        <v>3.641604607028398</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2564687469134554</v>
+        <v>0.0771745002290487</v>
       </c>
       <c r="D14">
-        <v>0.1520383493492119</v>
+        <v>0.2154617308372053</v>
       </c>
       <c r="E14">
-        <v>0.2241897903765491</v>
+        <v>0.1825105245772747</v>
       </c>
       <c r="F14">
-        <v>2.625068694479097</v>
+        <v>1.491926318211313</v>
       </c>
       <c r="G14">
-        <v>2.261703831179574</v>
+        <v>0.9706457858187889</v>
       </c>
       <c r="H14">
-        <v>1.113712354992344</v>
+        <v>0.8150524626724689</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3536490429371213</v>
+        <v>0.2116459590375399</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>7.081331009791654</v>
+        <v>3.612584123659303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.253408094347563</v>
+        <v>0.07639728811486179</v>
       </c>
       <c r="D15">
-        <v>0.1508452481204188</v>
+        <v>0.2153019231388527</v>
       </c>
       <c r="E15">
-        <v>0.2218681266422351</v>
+        <v>0.1820738609860157</v>
       </c>
       <c r="F15">
-        <v>2.595545288824752</v>
+        <v>1.485632054026979</v>
       </c>
       <c r="G15">
-        <v>2.235175567908954</v>
+        <v>0.9646168950917229</v>
       </c>
       <c r="H15">
-        <v>1.101829352767311</v>
+        <v>0.8127053441018575</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3496833237655181</v>
+        <v>0.2108302469391248</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>7.000167861205625</v>
+        <v>3.594846060814973</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2359981105519751</v>
+        <v>0.07194951869236377</v>
       </c>
       <c r="D16">
-        <v>0.144088177105516</v>
+        <v>0.2144115341665582</v>
       </c>
       <c r="E16">
-        <v>0.2087030740099962</v>
+        <v>0.1795993373709948</v>
       </c>
       <c r="F16">
-        <v>2.427972771283464</v>
+        <v>1.449800784119205</v>
       </c>
       <c r="G16">
-        <v>2.084530642780834</v>
+        <v>0.9302184883761697</v>
       </c>
       <c r="H16">
-        <v>1.034430593791768</v>
+        <v>0.7993810632741543</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.327188188292439</v>
+        <v>0.2061906098194157</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>6.53943192149768</v>
+        <v>3.493774967663057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2254253143612743</v>
+        <v>0.06922635870277816</v>
       </c>
       <c r="D17">
-        <v>0.1400110393973222</v>
+        <v>0.2138879912362484</v>
       </c>
       <c r="E17">
-        <v>0.2007441348771977</v>
+        <v>0.1781060963176273</v>
       </c>
       <c r="F17">
-        <v>2.326525149537346</v>
+        <v>1.428031990147105</v>
       </c>
       <c r="G17">
-        <v>1.993265793041189</v>
+        <v>0.9092502194449139</v>
       </c>
       <c r="H17">
-        <v>0.9936699262119362</v>
+        <v>0.7913194645214787</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3135815974574285</v>
+        <v>0.2033753944021726</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>6.260448377678188</v>
+        <v>3.4322861830546</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2193807183144827</v>
+        <v>0.06766203167551055</v>
       </c>
       <c r="D18">
-        <v>0.1376897170551246</v>
+        <v>0.2135952039426456</v>
       </c>
       <c r="E18">
-        <v>0.1962068175573393</v>
+        <v>0.177256327565317</v>
       </c>
       <c r="F18">
-        <v>2.268638869125226</v>
+        <v>1.415589105775723</v>
       </c>
       <c r="G18">
-        <v>1.941165720373704</v>
+        <v>0.8972389035548076</v>
       </c>
       <c r="H18">
-        <v>0.9704270340778294</v>
+        <v>0.7867239148270926</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3058217766176625</v>
+        <v>0.2017675400542345</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>6.101238075176809</v>
+        <v>3.397108262714426</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2173401359997058</v>
+        <v>0.06713271233556384</v>
       </c>
       <c r="D19">
-        <v>0.1369077165304304</v>
+        <v>0.213497504228684</v>
       </c>
       <c r="E19">
-        <v>0.1946772624477546</v>
+        <v>0.176970173187982</v>
       </c>
       <c r="F19">
-        <v>2.249116163716153</v>
+        <v>1.411389532417957</v>
       </c>
       <c r="G19">
-        <v>1.923590309920911</v>
+        <v>0.8931804903969294</v>
       </c>
       <c r="H19">
-        <v>0.9625907419337523</v>
+        <v>0.7851750244728919</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3032053925995939</v>
+        <v>0.2012251005842671</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>6.047539079919886</v>
+        <v>3.385230004966104</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.226546953791896</v>
+        <v>0.06951604009691437</v>
       </c>
       <c r="D20">
-        <v>0.140442572423936</v>
+        <v>0.2139428601582267</v>
       </c>
       <c r="E20">
-        <v>0.2015871317795472</v>
+        <v>0.1782641119323145</v>
       </c>
       <c r="F20">
-        <v>2.337275698151146</v>
+        <v>1.430341244444293</v>
       </c>
       <c r="G20">
-        <v>2.002939757164143</v>
+        <v>0.9114772440300953</v>
       </c>
       <c r="H20">
-        <v>0.9979878032270335</v>
+        <v>0.7921733633517647</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3150230730523305</v>
+        <v>0.2036739001438832</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>6.290014877469048</v>
+        <v>3.438812218089822</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2579388148082984</v>
+        <v>0.07754730360997542</v>
       </c>
       <c r="D21">
-        <v>0.1526119399909902</v>
+        <v>0.2155388121715305</v>
       </c>
       <c r="E21">
-        <v>0.2253056609189557</v>
+        <v>0.1827204090742356</v>
       </c>
       <c r="F21">
-        <v>2.639255800891675</v>
+        <v>1.494948815327632</v>
       </c>
       <c r="G21">
-        <v>2.274450371370051</v>
+        <v>0.9735394754994786</v>
       </c>
       <c r="H21">
-        <v>1.119423454869093</v>
+        <v>0.8161802021215863</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3555549778265572</v>
+        <v>0.2120377331518881</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>7.120331914713177</v>
+        <v>3.621100258499951</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2788465529011006</v>
+        <v>0.08281416027682553</v>
       </c>
       <c r="D22">
-        <v>0.1608051247517182</v>
+        <v>0.21665602212056</v>
       </c>
       <c r="E22">
-        <v>0.241226637927511</v>
+        <v>0.1857141314301884</v>
       </c>
       <c r="F22">
-        <v>2.841483930873409</v>
+        <v>1.537871016488282</v>
       </c>
       <c r="G22">
-        <v>2.456058822244813</v>
+        <v>1.014541625562316</v>
       </c>
       <c r="H22">
-        <v>1.200890418275009</v>
+        <v>0.8322384904946318</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3827407075536229</v>
+        <v>0.2176059498936098</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>7.676198399002942</v>
+        <v>3.741927523114384</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2676485214649489</v>
+        <v>0.08000147273300229</v>
       </c>
       <c r="D23">
-        <v>0.1564088650921747</v>
+        <v>0.2160529654793635</v>
       </c>
       <c r="E23">
-        <v>0.2326878646995354</v>
+        <v>0.1841088788204104</v>
       </c>
       <c r="F23">
-        <v>2.733067592495928</v>
+        <v>1.514898655921542</v>
       </c>
       <c r="G23">
-        <v>2.358716164517375</v>
+        <v>0.9926174766382303</v>
       </c>
       <c r="H23">
-        <v>1.15720180468</v>
+        <v>0.8236341221845009</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3681620771192797</v>
+        <v>0.2146247283206009</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190005627</v>
       </c>
       <c r="O23">
-        <v>7.378208094557976</v>
+        <v>3.677284467669892</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2260397558841305</v>
+        <v>0.06938507123904003</v>
       </c>
       <c r="D24">
-        <v>0.1402474060080152</v>
+        <v>0.2139180283619169</v>
       </c>
       <c r="E24">
-        <v>0.2012058939590844</v>
+        <v>0.1781926459288243</v>
       </c>
       <c r="F24">
-        <v>2.332414020869876</v>
+        <v>1.429297005451531</v>
       </c>
       <c r="G24">
-        <v>1.99856501472442</v>
+        <v>0.910470270384053</v>
       </c>
       <c r="H24">
-        <v>0.996035099507111</v>
+        <v>0.7917871936849394</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3143711874816262</v>
+        <v>0.2035389125315561</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>6.276644205980404</v>
+        <v>3.43586125950452</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1825266603409119</v>
+        <v>0.05800826539810089</v>
       </c>
       <c r="D25">
-        <v>0.123708990194082</v>
+        <v>0.2119340913195487</v>
       </c>
       <c r="E25">
-        <v>0.1687667590320245</v>
+        <v>0.1721589486874109</v>
       </c>
       <c r="F25">
-        <v>1.917633945989039</v>
+        <v>1.339939663534139</v>
       </c>
       <c r="G25">
-        <v>1.624807971718184</v>
+        <v>0.82373493451135</v>
       </c>
       <c r="H25">
-        <v>0.8297563377488473</v>
+        <v>0.759012223452487</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2588367285282231</v>
+        <v>0.1920158612543617</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311365</v>
       </c>
       <c r="O25">
-        <v>5.1354220010939</v>
+        <v>3.182658497228545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_100/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04969111061828357</v>
+        <v>0.1513533207421318</v>
       </c>
       <c r="D2">
-        <v>0.2107476850596086</v>
+        <v>0.1121655607192764</v>
       </c>
       <c r="E2">
-        <v>0.1680132064088014</v>
+        <v>0.1459082474748037</v>
       </c>
       <c r="F2">
-        <v>1.276671991392604</v>
+        <v>1.623710477617493</v>
       </c>
       <c r="G2">
-        <v>0.7614461594882869</v>
+        <v>1.359162961189128</v>
       </c>
       <c r="H2">
-        <v>0.7362247279386338</v>
+        <v>0.7123881736341957</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1838998710621524</v>
+        <v>0.2195916495684003</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>3.002323868125757</v>
+        <v>4.325936529764817</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0440893987137656</v>
+        <v>0.1306297015346018</v>
       </c>
       <c r="D3">
-        <v>0.2101148881431385</v>
+        <v>0.1046783009983301</v>
       </c>
       <c r="E3">
-        <v>0.1653876853705007</v>
+        <v>0.1309345934344854</v>
       </c>
       <c r="F3">
-        <v>1.235354089528187</v>
+        <v>1.430159731988311</v>
       </c>
       <c r="G3">
-        <v>0.7201967886403509</v>
+        <v>1.183735308740069</v>
       </c>
       <c r="H3">
-        <v>0.7216148393470121</v>
+        <v>0.6353758814912283</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1786267740460445</v>
+        <v>0.193805413474756</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>2.883864273825111</v>
+        <v>3.792358916248361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04066648080491575</v>
+        <v>0.1180634485427419</v>
       </c>
       <c r="D4">
-        <v>0.2098108844849804</v>
+        <v>0.1002290885305612</v>
       </c>
       <c r="E4">
-        <v>0.1638661144860727</v>
+        <v>0.1219599220516727</v>
       </c>
       <c r="F4">
-        <v>1.210749221148646</v>
+        <v>1.31365559037333</v>
       </c>
       <c r="G4">
-        <v>0.6953400628314057</v>
+        <v>1.077892611268027</v>
       </c>
       <c r="H4">
-        <v>0.7130539717894919</v>
+        <v>0.589152337285185</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1755003753982649</v>
+        <v>0.1783088153418859</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>2.812967843030833</v>
+        <v>3.470912885329938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03927570747224252</v>
+        <v>0.1129768371980191</v>
       </c>
       <c r="D5">
-        <v>0.2097082792863816</v>
+        <v>0.09845080691365382</v>
       </c>
       <c r="E5">
-        <v>0.1632687989182777</v>
+        <v>0.1183528688171691</v>
       </c>
       <c r="F5">
-        <v>1.200914363468527</v>
+        <v>1.266706045450405</v>
       </c>
       <c r="G5">
-        <v>0.6853285548016999</v>
+        <v>1.035176929787681</v>
       </c>
       <c r="H5">
-        <v>0.7096682597508703</v>
+        <v>0.5705578324770357</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1742542540487335</v>
+        <v>0.172069738888915</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>2.784537893400397</v>
+        <v>3.34130540501377</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03904501583026843</v>
+        <v>0.1121341225507706</v>
       </c>
       <c r="D6">
-        <v>0.2096925275952657</v>
+        <v>0.09815755960119077</v>
       </c>
       <c r="E6">
-        <v>0.1631709877360805</v>
+        <v>0.117756814582922</v>
       </c>
       <c r="F6">
-        <v>1.199292866790799</v>
+        <v>1.258940231840725</v>
       </c>
       <c r="G6">
-        <v>0.6836732519807072</v>
+        <v>1.028107637248908</v>
       </c>
       <c r="H6">
-        <v>0.7091122775099876</v>
+        <v>0.5674841407522848</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1740490201064162</v>
+        <v>0.1710380886573049</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.779844922308712</v>
+        <v>3.319863109774587</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04064770786656879</v>
+        <v>0.1179947171309408</v>
       </c>
       <c r="D7">
-        <v>0.2098094145296088</v>
+        <v>0.100204968129276</v>
       </c>
       <c r="E7">
-        <v>0.1638579668473099</v>
+        <v>0.1219110790851268</v>
       </c>
       <c r="F7">
-        <v>1.21061580867098</v>
+        <v>1.313020356511345</v>
       </c>
       <c r="G7">
-        <v>0.6952045678091281</v>
+        <v>1.077314917001871</v>
       </c>
       <c r="H7">
-        <v>0.7130078943511364</v>
+        <v>0.588900617566452</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1754834568576271</v>
+        <v>0.1782243765916789</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>2.812582562290402</v>
+        <v>3.46915956152219</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04775616062549659</v>
+        <v>0.1441715496644633</v>
       </c>
       <c r="D8">
-        <v>0.2105119633123351</v>
+        <v>0.1095517365383785</v>
       </c>
       <c r="E8">
-        <v>0.1670891265871504</v>
+        <v>0.1406967589342329</v>
       </c>
       <c r="F8">
-        <v>1.262266643986948</v>
+        <v>1.556451209984132</v>
       </c>
       <c r="G8">
-        <v>0.7471253876036883</v>
+        <v>1.298253335191163</v>
       </c>
       <c r="H8">
-        <v>0.7311021441246055</v>
+        <v>0.6855981247848888</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1820585575030407</v>
+        <v>0.2106253666086957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>2.96109663284426</v>
+        <v>4.140572939472577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0618310090167995</v>
+        <v>0.1970302123596213</v>
       </c>
       <c r="D9">
-        <v>0.2125597742668219</v>
+        <v>0.1291730613794613</v>
       </c>
       <c r="E9">
-        <v>0.1741451481489946</v>
+        <v>0.1795170167057165</v>
       </c>
       <c r="F9">
-        <v>1.369645234141316</v>
+        <v>2.055353575259005</v>
       </c>
       <c r="G9">
-        <v>0.8527049597044538</v>
+        <v>1.749031077697595</v>
       </c>
       <c r="H9">
-        <v>0.7698429204376112</v>
+        <v>0.884891264050907</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1958398391215894</v>
+        <v>0.2772572791160144</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>3.266996416250606</v>
+        <v>5.514461767173543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0722605177838318</v>
+        <v>0.237209710775744</v>
       </c>
       <c r="D10">
-        <v>0.2144724038754475</v>
+        <v>0.1445567155732164</v>
       </c>
       <c r="E10">
-        <v>0.1797709608777254</v>
+        <v>0.2096169174505818</v>
       </c>
       <c r="F10">
-        <v>1.452295328595596</v>
+        <v>2.439613863238591</v>
       </c>
       <c r="G10">
-        <v>0.9326177770774677</v>
+        <v>2.094999986976205</v>
       </c>
       <c r="H10">
-        <v>0.8003065429869878</v>
+        <v>1.039109971570412</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2065133899798752</v>
+        <v>0.3287501219152347</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>3.500816883837047</v>
+        <v>6.571442345150047</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07702584964360426</v>
+        <v>0.255882933334604</v>
       </c>
       <c r="D11">
-        <v>0.2154310724398982</v>
+        <v>0.1518098721261367</v>
       </c>
       <c r="E11">
-        <v>0.1824269134106373</v>
+        <v>0.2237452571431433</v>
       </c>
       <c r="F11">
-        <v>1.490721737755166</v>
+        <v>2.619416415706411</v>
       </c>
       <c r="G11">
-        <v>0.9694922927976108</v>
+        <v>2.256625256362469</v>
       </c>
       <c r="H11">
-        <v>0.8146031334345594</v>
+        <v>1.111437154970133</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2114898347396519</v>
+        <v>0.3528897467783594</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>3.60918982072053</v>
+        <v>7.065792490401066</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07883345327934421</v>
+        <v>0.2630203435572156</v>
       </c>
       <c r="D12">
-        <v>0.2158068242922155</v>
+        <v>0.1545972474638688</v>
       </c>
       <c r="E12">
-        <v>0.183446606245603</v>
+        <v>0.2291665366858879</v>
       </c>
       <c r="F12">
-        <v>1.505392597165411</v>
+        <v>2.688328778490899</v>
       </c>
       <c r="G12">
-        <v>0.9835314671214803</v>
+        <v>2.318534161272169</v>
       </c>
       <c r="H12">
-        <v>0.8200801398335216</v>
+        <v>1.139182346173641</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2133917932220157</v>
+        <v>0.3621488572635911</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>3.650518376121966</v>
+        <v>7.25523041804945</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07844401556036473</v>
+        <v>0.2614800670188941</v>
       </c>
       <c r="D13">
-        <v>0.2157253337201013</v>
+        <v>0.1539950538699486</v>
       </c>
       <c r="E13">
-        <v>0.1832263766265498</v>
+        <v>0.2279956557142455</v>
       </c>
       <c r="F13">
-        <v>1.502227637601607</v>
+        <v>2.673448763941707</v>
       </c>
       <c r="G13">
-        <v>0.9805045085584823</v>
+        <v>2.305167997298355</v>
       </c>
       <c r="H13">
-        <v>0.818897755549358</v>
+        <v>1.133190315721549</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2129813932859292</v>
+        <v>0.360149237758506</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>3.641604607028398</v>
+        <v>7.214327007200609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0771745002290487</v>
+        <v>0.2564687469136828</v>
       </c>
       <c r="D14">
-        <v>0.2154617308372053</v>
+        <v>0.1520383493494109</v>
       </c>
       <c r="E14">
-        <v>0.1825105245772747</v>
+        <v>0.2241897903765206</v>
       </c>
       <c r="F14">
-        <v>1.491926318211313</v>
+        <v>2.625068694479097</v>
       </c>
       <c r="G14">
-        <v>0.9706457858187889</v>
+        <v>2.261703831179489</v>
       </c>
       <c r="H14">
-        <v>0.8150524626724689</v>
+        <v>1.113712354992259</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2116459590375399</v>
+        <v>0.3536490429371781</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>3.612584123659303</v>
+        <v>7.081331009791711</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07639728811486179</v>
+        <v>0.253408094347563</v>
       </c>
       <c r="D15">
-        <v>0.2153019231388527</v>
+        <v>0.1508452481203051</v>
       </c>
       <c r="E15">
-        <v>0.1820738609860157</v>
+        <v>0.2218681266422351</v>
       </c>
       <c r="F15">
-        <v>1.485632054026979</v>
+        <v>2.595545288824752</v>
       </c>
       <c r="G15">
-        <v>0.9646168950917229</v>
+        <v>2.235175567908925</v>
       </c>
       <c r="H15">
-        <v>0.8127053441018575</v>
+        <v>1.101829352767311</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2108302469391248</v>
+        <v>0.3496833237655181</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>3.594846060814973</v>
+        <v>7.000167861205568</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07194951869236377</v>
+        <v>0.2359981105519466</v>
       </c>
       <c r="D16">
-        <v>0.2144115341665582</v>
+        <v>0.1440881771054165</v>
       </c>
       <c r="E16">
-        <v>0.1795993373709948</v>
+        <v>0.2087030740099749</v>
       </c>
       <c r="F16">
-        <v>1.449800784119205</v>
+        <v>2.427972771283422</v>
       </c>
       <c r="G16">
-        <v>0.9302184883761697</v>
+        <v>2.084530642780777</v>
       </c>
       <c r="H16">
-        <v>0.7993810632741543</v>
+        <v>1.034430593791797</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2061906098194157</v>
+        <v>0.3271881882923964</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>3.493774967663057</v>
+        <v>6.53943192149768</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06922635870277816</v>
+        <v>0.2254253143610754</v>
       </c>
       <c r="D17">
-        <v>0.2138879912362484</v>
+        <v>0.1400110393972085</v>
       </c>
       <c r="E17">
-        <v>0.1781060963176273</v>
+        <v>0.200744134877219</v>
       </c>
       <c r="F17">
-        <v>1.428031990147105</v>
+        <v>2.326525149537318</v>
       </c>
       <c r="G17">
-        <v>0.9092502194449139</v>
+        <v>1.993265793041189</v>
       </c>
       <c r="H17">
-        <v>0.7913194645214787</v>
+        <v>0.9936699262117941</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2033753944021726</v>
+        <v>0.3135815974574854</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>3.4322861830546</v>
+        <v>6.260448377678188</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06766203167551055</v>
+        <v>0.2193807183147101</v>
       </c>
       <c r="D18">
-        <v>0.2135952039426456</v>
+        <v>0.1376897170549967</v>
       </c>
       <c r="E18">
-        <v>0.177256327565317</v>
+        <v>0.1962068175573037</v>
       </c>
       <c r="F18">
-        <v>1.415589105775723</v>
+        <v>2.268638869125212</v>
       </c>
       <c r="G18">
-        <v>0.8972389035548076</v>
+        <v>1.941165720373675</v>
       </c>
       <c r="H18">
-        <v>0.7867239148270926</v>
+        <v>0.9704270340777157</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2017675400542345</v>
+        <v>0.3058217766176057</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>3.397108262714426</v>
+        <v>6.101238075176752</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06713271233556384</v>
+        <v>0.2173401359997058</v>
       </c>
       <c r="D19">
-        <v>0.213497504228684</v>
+        <v>0.1369077165305299</v>
       </c>
       <c r="E19">
-        <v>0.176970173187982</v>
+        <v>0.1946772624477262</v>
       </c>
       <c r="F19">
-        <v>1.411389532417957</v>
+        <v>2.249116163716153</v>
       </c>
       <c r="G19">
-        <v>0.8931804903969294</v>
+        <v>1.923590309920939</v>
       </c>
       <c r="H19">
-        <v>0.7851750244728919</v>
+        <v>0.9625907419336386</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2012251005842671</v>
+        <v>0.3032053925995513</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>3.385230004966104</v>
+        <v>6.047539079919886</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06951604009691437</v>
+        <v>0.2265469537917113</v>
       </c>
       <c r="D20">
-        <v>0.2139428601582267</v>
+        <v>0.1404425724240639</v>
       </c>
       <c r="E20">
-        <v>0.1782641119323145</v>
+        <v>0.2015871317795472</v>
       </c>
       <c r="F20">
-        <v>1.430341244444293</v>
+        <v>2.337275698151188</v>
       </c>
       <c r="G20">
-        <v>0.9114772440300953</v>
+        <v>2.002939757164114</v>
       </c>
       <c r="H20">
-        <v>0.7921733633517647</v>
+        <v>0.9979878032271188</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2036739001438832</v>
+        <v>0.3150230730522736</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>3.438812218089822</v>
+        <v>6.290014877469105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07754730360997542</v>
+        <v>0.2579388148089663</v>
       </c>
       <c r="D21">
-        <v>0.2155388121715305</v>
+        <v>0.1526119399911039</v>
       </c>
       <c r="E21">
-        <v>0.1827204090742356</v>
+        <v>0.2253056609189485</v>
       </c>
       <c r="F21">
-        <v>1.494948815327632</v>
+        <v>2.639255800891675</v>
       </c>
       <c r="G21">
-        <v>0.9735394754994786</v>
+        <v>2.274450371370079</v>
       </c>
       <c r="H21">
-        <v>0.8161802021215863</v>
+        <v>1.11942345486915</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2120377331518881</v>
+        <v>0.3555549778266283</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>3.621100258499951</v>
+        <v>7.120331914713177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08281416027682553</v>
+        <v>0.2788465529008874</v>
       </c>
       <c r="D22">
-        <v>0.21665602212056</v>
+        <v>0.1608051247518318</v>
       </c>
       <c r="E22">
-        <v>0.1857141314301884</v>
+        <v>0.2412266379275394</v>
       </c>
       <c r="F22">
-        <v>1.537871016488282</v>
+        <v>2.841483930873409</v>
       </c>
       <c r="G22">
-        <v>1.014541625562316</v>
+        <v>2.45605882224487</v>
       </c>
       <c r="H22">
-        <v>0.8322384904946318</v>
+        <v>1.20089041827498</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2176059498936098</v>
+        <v>0.3827407075536655</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>3.741927523114384</v>
+        <v>7.676198399002999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08000147273300229</v>
+        <v>0.2676485214653894</v>
       </c>
       <c r="D23">
-        <v>0.2160529654793635</v>
+        <v>0.1564088650922741</v>
       </c>
       <c r="E23">
-        <v>0.1841088788204104</v>
+        <v>0.2326878646995425</v>
       </c>
       <c r="F23">
-        <v>1.514898655921542</v>
+        <v>2.733067592495928</v>
       </c>
       <c r="G23">
-        <v>0.9926174766382303</v>
+        <v>2.35871616451746</v>
       </c>
       <c r="H23">
-        <v>0.8236341221845009</v>
+        <v>1.15720180468</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2146247283206009</v>
+        <v>0.3681620771193082</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190005627</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>3.677284467669892</v>
+        <v>7.378208094557976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06938507123904003</v>
+        <v>0.2260397558841305</v>
       </c>
       <c r="D24">
-        <v>0.2139180283619169</v>
+        <v>0.1402474060079157</v>
       </c>
       <c r="E24">
-        <v>0.1781926459288243</v>
+        <v>0.2012058939591412</v>
       </c>
       <c r="F24">
-        <v>1.429297005451531</v>
+        <v>2.332414020869876</v>
       </c>
       <c r="G24">
-        <v>0.910470270384053</v>
+        <v>1.99856501472442</v>
       </c>
       <c r="H24">
-        <v>0.7917871936849394</v>
+        <v>0.996035099507111</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2035389125315561</v>
+        <v>0.3143711874815978</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>3.43586125950452</v>
+        <v>6.276644205980404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05800826539810089</v>
+        <v>0.182526660340983</v>
       </c>
       <c r="D25">
-        <v>0.2119340913195487</v>
+        <v>0.1237089901939683</v>
       </c>
       <c r="E25">
-        <v>0.1721589486874109</v>
+        <v>0.1687667590320387</v>
       </c>
       <c r="F25">
-        <v>1.339939663534139</v>
+        <v>1.917633945989039</v>
       </c>
       <c r="G25">
-        <v>0.82373493451135</v>
+        <v>1.62480797171807</v>
       </c>
       <c r="H25">
-        <v>0.759012223452487</v>
+        <v>0.8297563377488473</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1920158612543617</v>
+        <v>0.2588367285282089</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311365</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>3.182658497228545</v>
+        <v>5.135422001093957</v>
       </c>
     </row>
   </sheetData>
